--- a/Compound_list_cirsium.xlsx
+++ b/Compound_list_cirsium.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\Universitetet\PhD\Me\GitHub\Cirsium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\Universitetet\PhD\GitHub\Cirsium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F14299A-68FE-4B06-8F00-4102CF821FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F1248B-8EB8-4BA8-90B0-AE27604E0E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5B7F404D-C4B6-4CEE-8FC7-9822D816371B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5B7F404D-C4B6-4CEE-8FC7-9822D816371B}"/>
   </bookViews>
   <sheets>
     <sheet name="Original list" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
   <si>
     <t>Apex.RT</t>
   </si>
@@ -475,16 +475,28 @@
   </si>
   <si>
     <t>41, 105, 107, 204, 93</t>
+  </si>
+  <si>
+    <t>RI verified using Kovats Alkanes C7-C40, name not correct</t>
+  </si>
+  <si>
+    <t>Verified using Kovat's C7-C40, name not sure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1739,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DEA63-48EC-4A60-B75C-5BAE137B529F}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1783,11 +1795,17 @@
       <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>110</v>
+      </c>
+      <c r="D2">
+        <v>830</v>
       </c>
       <c r="E2">
         <v>1209</v>
+      </c>
+      <c r="G2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1797,11 +1815,17 @@
       <c r="B3" t="s">
         <v>141</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="D3">
+        <v>872</v>
       </c>
       <c r="E3">
         <v>1167</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1811,11 +1835,17 @@
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D4">
+        <v>917</v>
       </c>
       <c r="E4">
         <v>1211</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1939,9 +1969,6 @@
       <c r="E11" s="2">
         <v>1491</v>
       </c>
-      <c r="G11" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -2560,7 +2587,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>22.82</v>
       </c>
@@ -2570,8 +2597,15 @@
       <c r="C49" t="s">
         <v>140</v>
       </c>
+      <c r="D49">
+        <v>2624</v>
+      </c>
+      <c r="G49" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Compound_list_cirsium.xlsx
+++ b/Compound_list_cirsium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\Universitetet\PhD\GitHub\Cirsium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F1248B-8EB8-4BA8-90B0-AE27604E0E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D130C33-8C81-47AB-AF0B-C158B96D43EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5B7F404D-C4B6-4CEE-8FC7-9822D816371B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
   <si>
     <t>Apex.RT</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Verified using Kovat's C7-C40, name not sure</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -1749,858 +1752,1005 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DEA63-48EC-4A60-B75C-5BAE137B529F}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>5.3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>830</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1209</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>5.99</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>872</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1167</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>6.74</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>917</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1211</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>7.07</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1243</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1243</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>7.33</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>112</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1260</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1260</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>8.26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1324</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1315</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1388</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1380</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>10.57</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>113</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1482</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>10.69</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>1491</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>1666</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
         <v>10.9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>1505</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>1491</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>11.01</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>1513</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1518</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1513</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>11.37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1545</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1543</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>11.46</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>142</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>1551</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1542</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>12.05</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>143</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>1594</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1591</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>12.2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>1604</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1588</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>12.4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>1619</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
         <v>12.9</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>1654</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>1651</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>13.06</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>1665</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>1667</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>13.17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>1672</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1672</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>13.26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>1710</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1690</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>13.51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>13.55</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>13.6</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>1737</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1728</v>
       </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>13.65</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>144</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>1740</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1717</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>13.79</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>1751</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
         <v>13.85</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>1756</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>1743</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>14.08</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>69</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>1773</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1767</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1773</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>14.25</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>1791</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>14.51</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>1819</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1813</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>14.68</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>1837</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>15.1</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>1881</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1865</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1877</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>15.37</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>72</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>1910</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1879</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>15.5</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>1924</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1924</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>15.62</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>74</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>134</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1936</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>15.88</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>75</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>135</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1962</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>15.98</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>76</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>34</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1972</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1955</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>16.5</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>136</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>2024</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1986</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>16.7</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>78</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>36</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>2045</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>2025</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>16.88</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>79</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>37</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>2063</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>2052</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>17.579999999999998</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>137</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>2133</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>17.75</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>81</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>39</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>2150</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>2119</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>17.93</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>82</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>138</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>2168</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>18.03</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>83</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>41</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>2178</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>2162</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>19.010000000000002</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>84</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>42</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>2277</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>19.100000000000001</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>85</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>43</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>2286</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>2295</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>20.91</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>86</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>44</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>2467</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>22.11</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>87</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>2588</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>2612</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>2588</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>22.82</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>88</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>140</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>2624</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>146</v>
       </c>
     </row>
